--- a/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
+++ b/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Documents/ELYlle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55DF058B-9A7F-DB42-BFD6-2BFC9DE09445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E9FED-8F89-0F44-9B36-6222A890AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="3600" windowWidth="51200" windowHeight="26560" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26560" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,21 @@
     <t>Päivämäärä*</t>
   </si>
   <si>
+    <t>Tie*</t>
+  </si>
+  <si>
+    <t>A-osa*</t>
+  </si>
+  <si>
+    <t>A-et*</t>
+  </si>
+  <si>
+    <t>L-osa*</t>
+  </si>
+  <si>
+    <t>L-et*</t>
+  </si>
+  <si>
     <t>Menetelmä*</t>
   </si>
   <si>
@@ -139,21 +154,6 @@
   </si>
   <si>
     <t>*Kaikki tiedot ovat pakollisia täyttää</t>
-  </si>
-  <si>
-    <t>Tienro*</t>
-  </si>
-  <si>
-    <t>Aosa*</t>
-  </si>
-  <si>
-    <t>Aet*</t>
-  </si>
-  <si>
-    <t>Losa*</t>
-  </si>
-  <si>
-    <t>Let*</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -396,32 +396,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +762,7 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,42 +771,42 @@
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16" style="10" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8">
         <f>SUM(K4:K123)</f>
         <v>0</v>
       </c>
@@ -816,480 +819,489 @@
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="K3" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{921AC80C-4A9C-494C-AB81-14160DBEE5F7}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$20</xm:f>

--- a/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
+++ b/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Downloads/excelpohjauusinpulla/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E9FED-8F89-0F44-9B36-6222A890AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B8DB5-EFEC-914D-A002-B09C05C4D6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26560" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
+    <workbookView xWindow="-40020" yWindow="500" windowWidth="30760" windowHeight="28300" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Konetiivistetty reikävaluasfalttipaikkaus (REPA)</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>*Kaikki tiedot ovat pakollisia täyttää</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Huom. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tätä exceliä ei ole tarkoitettu ohjelmoitujen paikkausten tietojen tuontiin. Näitä varten on Harjassa sivu "Muut paikkaukset" → "Paikkauskohteet"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -161,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -192,7 +213,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +232,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -364,15 +397,6 @@
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
       <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
@@ -396,35 +420,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,38 +798,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210DBC25-473C-CE47-A5E6-75D033468D25}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="21" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16" style="24" customWidth="1"/>
+    <col min="10" max="10" width="16" style="5" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="3"/>
@@ -798,21 +844,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="26">
         <f>SUM(K4:K123)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -830,489 +876,61 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="22"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen tunniste" error="Tunnisteen tulee olla numeerinen arvo." sqref="A4:A1048576" xr:uid="{E55D10B6-8E53-AF48-9EEE-E72A5611D938}">
+      <formula1>0</formula1>
+      <formula2>1000000000</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen syöte" error="Tiedon tulee olla validi päivämäärä (xx.xx.xxxx)" sqref="B4:B1048576" xr:uid="{A9C431C6-75E5-B54C-A918-FD1103970469}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen syöte" error="Tiedon tulee olla numeerinen arvo." sqref="I4:I1048576 K4:K1048576" xr:uid="{30F6D3A9-A2FE-904B-8C30-B1B3962D8419}">
+      <formula1>0</formula1>
+      <formula2>1000000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen syöte" error="Tiedon tulee olla numeerinen arvo." sqref="D4:G1048576 C4:C1048576" xr:uid="{45AF15BF-701D-4241-804D-28241CC2094C}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{921AC80C-4A9C-494C-AB81-14160DBEE5F7}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$20</xm:f>
-          </x14:formula1>
-          <xm:sqref>H4:H113</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{233CB19B-18FC-F54D-A207-8761DD0B3200}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{921AC80C-4A9C-494C-AB81-14160DBEE5F7}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1325,7 +943,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +961,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1351,7 +969,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1359,7 +977,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1367,7 +985,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1375,77 +993,77 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
+++ b/resources/public/excel/harja_reikapaikkausten_pohja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Downloads/excelpohjauusinpulla/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panu.pasanen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B8DB5-EFEC-914D-A002-B09C05C4D6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA142DFB-200D-5740-A1D0-B9DF5118E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40020" yWindow="500" windowWidth="30760" windowHeight="28300" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
+    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{59B07E82-4145-2244-B2B8-7A6E24D805F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Tätä exceliä ei ole tarkoitettu ohjelmoitujen paikkausten tietojen tuontiin. Näitä varten on Harjassa sivu "Muut paikkaukset" → "Paikkauskohteet"</t>
+      <t>Tämä excel on tarkoitettu kohteettomien reikäpaikkausten tietojen tuontiin. Muita paikkauksia varten harjassa on välilehti "Muut paikkaukset" → "Paikkauskohteet"</t>
     </r>
   </si>
 </sst>
@@ -801,7 +801,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,13 +899,10 @@
       <c r="F20" s="22"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen tunniste" error="Tunnisteen tulee olla numeerinen arvo." sqref="A4:A1048576" xr:uid="{E55D10B6-8E53-AF48-9EEE-E72A5611D938}">
       <formula1>0</formula1>
       <formula2>1000000000</formula2>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen syöte" error="Tiedon tulee olla validi päivämäärä (xx.xx.xxxx)" sqref="B4:B1048576" xr:uid="{A9C431C6-75E5-B54C-A918-FD1103970469}">
-      <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Virheellinen syöte" error="Tiedon tulee olla numeerinen arvo." sqref="I4:I1048576 K4:K1048576" xr:uid="{30F6D3A9-A2FE-904B-8C30-B1B3962D8419}">
       <formula1>0</formula1>
